--- a/data/SNI_check.xlsx
+++ b/data/SNI_check.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\GFW-2021Summer-TLS-Proxy-Attack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F314BA8E-B1FA-457C-955E-BF08CCA96EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B401A2-C1A7-43C1-BAFF-249218CF238B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16620" yWindow="1890" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="us-qdncn2-1" sheetId="1" r:id="rId1"/>
+    <sheet name="us-cn2gia-1" sheetId="2" r:id="rId2"/>
+    <sheet name="plot" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>HOSTNAME</t>
   </si>
@@ -49,6 +51,21 @@
   </si>
   <si>
     <t>HANDSHAKE</t>
+  </si>
+  <si>
+    <t>2021summer2.domainB</t>
+  </si>
+  <si>
+    <t>anonymous3.domainA</t>
+  </si>
+  <si>
+    <t>anonymous4.domainA</t>
+  </si>
+  <si>
+    <t>us-cn2gia-1.domainA</t>
+  </si>
+  <si>
+    <t>victimii.domainC</t>
   </si>
 </sst>
 </file>
@@ -142,7 +159,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> SNI verification, same IP (n=50)</a:t>
+              <a:t> SNI verification, Bad IP (n=50)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -189,7 +206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'us-qdncn2-1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +227,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'us-qdncn2-1'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -233,7 +250,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>'us-qdncn2-1'!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -257,7 +274,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F2D-4CA6-8C0B-514B555BA51D}"/>
+              <c16:uniqueId val="{00000000-ECB6-4F4A-B2CD-0503B97833C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -266,7 +283,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'us-qdncn2-1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -287,7 +304,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>'us-qdncn2-1'!$A$2:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -310,7 +327,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>'us-qdncn2-1'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -334,7 +351,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F2D-4CA6-8C0B-514B555BA51D}"/>
+              <c16:uniqueId val="{00000001-ECB6-4F4A-B2CD-0503B97833C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -541,7 +558,485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Xray-core, SNI verification, Good</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> IP (n=50)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'us-cn2gia-1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUCCESS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'us-cn2gia-1'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>us-cn2gia-1.domainA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>anonymous3.domainA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>anonymous4.domainA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021summer2.domainB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>victimii.domainC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'us-cn2gia-1'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B22-45A1-955A-945D9128F33E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'us-cn2gia-1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HANDSHAKE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'us-cn2gia-1'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>us-cn2gia-1.domainA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>anonymous3.domainA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>anonymous4.domainA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021summer2.domainB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>victimii.domainC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'us-cn2gia-1'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B22-45A1-955A-945D9128F33E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="727424376"/>
+        <c:axId val="727420440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="727424376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727420440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="727420440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="727424376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1086,31 +1581,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9A764F-BED5-4E50-818F-E53C7DC10BCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71465DC-4518-4E03-8B49-ACB24AC1CFF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1119,6 +2121,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F862069E-8E8F-418D-9BEA-14D76DFC1829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1392,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,6 +2514,109 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CC7657-B4B9-4373-AE07-018E92C7EE33}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>50-B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">50-B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4890695-0CE4-4B19-ACBA-CB2A8ADE0942}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>